--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThaoHuynh\Documents_Studying\Documents_CyberSoft\HTML learning\CapstoneCuoiKhoa\CourseMate\CourseMate_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14010" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Educator" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="54">
   <si>
     <t>Start
 Build</t>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>link deploy</t>
+  </si>
+  <si>
+    <t>AboutUsPage</t>
   </si>
 </sst>
 </file>
@@ -506,7 +509,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -517,6 +519,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -534,7 +537,73 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -793,10 +862,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -813,7 +882,7 @@
     <col min="11" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -843,7 +912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>8</v>
       </c>
@@ -857,7 +926,7 @@
       <c r="I2" s="25"/>
       <c r="J2" s="26"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -881,7 +950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
@@ -905,7 +974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
@@ -929,7 +998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
@@ -953,7 +1022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
@@ -977,7 +1046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -1001,11 +1070,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>45231</v>
       </c>
       <c r="C9" s="9">
@@ -1014,22 +1083,22 @@
       <c r="D9" s="10">
         <v>1</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="10"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:10" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>45231</v>
       </c>
       <c r="C10" s="9">
@@ -1038,34 +1107,18 @@
       <c r="D10" s="10">
         <v>1</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="8"/>
+      <c r="E10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="10"/>
       <c r="I10" s="12"/>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>21</v>
       </c>
@@ -1079,7 +1132,7 @@
       <c r="I11" s="25"/>
       <c r="J11" s="26"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
         <v>22</v>
       </c>
@@ -1093,7 +1146,7 @@
       <c r="I12" s="25"/>
       <c r="J12" s="26"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1117,7 +1170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
@@ -1141,7 +1194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
@@ -1165,7 +1218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
@@ -1189,7 +1242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
@@ -1213,7 +1266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
         <v>28</v>
       </c>
@@ -1227,7 +1280,7 @@
       <c r="I18" s="25"/>
       <c r="J18" s="26"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>29</v>
       </c>
@@ -1251,7 +1304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>30</v>
       </c>
@@ -1275,7 +1328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>31</v>
       </c>
@@ -1299,7 +1352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>32</v>
       </c>
@@ -1323,7 +1376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>33</v>
       </c>
@@ -1347,7 +1400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
         <v>34</v>
       </c>
@@ -1361,7 +1414,7 @@
       <c r="I24" s="25"/>
       <c r="J24" s="26"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
         <v>35</v>
       </c>
@@ -1375,7 +1428,7 @@
       <c r="I25" s="25"/>
       <c r="J25" s="26"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>36</v>
       </c>
@@ -1399,7 +1452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>37</v>
       </c>
@@ -1423,7 +1476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>38</v>
       </c>
@@ -1447,7 +1500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>39</v>
       </c>
@@ -1471,7 +1524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>40</v>
       </c>
@@ -1495,7 +1548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
         <v>41</v>
       </c>
@@ -1509,7 +1562,7 @@
       <c r="I31" s="25"/>
       <c r="J31" s="26"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
@@ -1529,9 +1582,11 @@
       <c r="G32" s="9"/>
       <c r="H32" s="10"/>
       <c r="I32" s="12"/>
-      <c r="J32" s="16"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J32" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>37</v>
       </c>
@@ -1551,9 +1606,11 @@
       <c r="G33" s="9"/>
       <c r="H33" s="10"/>
       <c r="I33" s="12"/>
-      <c r="J33" s="16"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J33" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
@@ -1573,9 +1630,11 @@
       <c r="G34" s="9"/>
       <c r="H34" s="10"/>
       <c r="I34" s="12"/>
-      <c r="J34" s="16"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J34" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>39</v>
       </c>
@@ -1595,9 +1654,11 @@
       <c r="G35" s="9"/>
       <c r="H35" s="10"/>
       <c r="I35" s="12"/>
-      <c r="J35" s="16"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J35" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
@@ -1617,10 +1678,12 @@
       <c r="G36" s="9"/>
       <c r="H36" s="10"/>
       <c r="I36" s="12"/>
-      <c r="J36" s="16"/>
+      <c r="J36" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
+      <c r="A38" s="16"/>
       <c r="E38" s="22"/>
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
@@ -1628,22 +1691,22 @@
       <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
+      <c r="A39" s="16"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
+      <c r="A40" s="18"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
+      <c r="A41" s="18"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
@@ -1664,13 +1727,33 @@
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A25:J25"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D10 H3:H10 D13:D17 H13:H17 D19:D23 H19:H23 D26:D30 H26:H30 D32:D36 H32:H36">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D3:D8 H3:H8 D13:D17 H13:H17 D19:D23 H19:H23 D26:D30 H26:H30 D32:D36 H32:H36">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H10 H13:H17 H19:H23 H26:H30 H32:H36">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="H3:H8 H13:H17 H19:H23 H26:H30 H32:H36">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThan">
+      <formula>0.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9 H9">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+      <formula>0.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>0.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10 H10">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>0.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1684,10 +1767,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1747,7 +1830,7 @@
       <c r="I2" s="25"/>
       <c r="J2" s="26"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1777,7 +1860,7 @@
       </c>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>43</v>
       </c>
@@ -1805,9 +1888,9 @@
       <c r="I4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1835,9 +1918,9 @@
       <c r="I5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
@@ -1865,265 +1948,281 @@
       <c r="I6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="9">
+        <v>45231</v>
+      </c>
+      <c r="C7" s="9">
+        <v>45265</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="9">
+        <v>45244</v>
+      </c>
+      <c r="G7" s="9">
+        <v>45265</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C7" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="B8" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C8" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G7" s="8">
-        <v>45265</v>
-      </c>
-      <c r="H7" s="10">
-        <v>1</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="F8" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G8" s="8">
+        <v>45265</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C8" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D8" s="10">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G8" s="8">
-        <v>45265</v>
-      </c>
-      <c r="H8" s="10">
-        <v>1</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="B9" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C9" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G9" s="8">
+        <v>45265</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C9" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G9" s="8">
-        <v>45265</v>
-      </c>
-      <c r="H9" s="10">
-        <v>1</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C10" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G10" s="8">
+        <v>45265</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C10" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G10" s="8">
-        <v>45265</v>
-      </c>
-      <c r="H10" s="10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C11" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G11" s="8">
+        <v>45265</v>
+      </c>
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C11" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G11" s="8">
-        <v>45265</v>
-      </c>
-      <c r="H11" s="10">
-        <v>1</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C12" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G12" s="8">
+        <v>45265</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C12" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G12" s="8">
-        <v>45265</v>
-      </c>
-      <c r="H12" s="10">
-        <v>1</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="B13" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C13" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G13" s="8">
+        <v>45265</v>
+      </c>
+      <c r="H13" s="10">
+        <v>1</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C13" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D13" s="10">
-        <v>1</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G13" s="8">
-        <v>45265</v>
-      </c>
-      <c r="H13" s="10">
-        <v>1</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="B14" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C14" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G14" s="8">
+        <v>45265</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C14" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G14" s="8">
-        <v>45265</v>
-      </c>
-      <c r="H14" s="10">
-        <v>1</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
+      <c r="B15" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C15" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G15" s="8">
+        <v>45265</v>
+      </c>
+      <c r="H15" s="10">
+        <v>1</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
         <v>21</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="26"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
-        <v>22</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -2135,353 +2234,337 @@
       <c r="I16" s="25"/>
       <c r="J16" s="26"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C17" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D17" s="10">
-        <v>1</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G17" s="8">
-        <v>45265</v>
-      </c>
-      <c r="H17" s="10">
-        <v>1</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="B18" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C18" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G18" s="8">
+        <v>45265</v>
+      </c>
+      <c r="H18" s="10">
+        <v>1</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C18" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D18" s="10">
-        <v>1</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G18" s="8">
-        <v>45265</v>
-      </c>
-      <c r="H18" s="10">
-        <v>1</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="B19" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C19" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G19" s="8">
+        <v>45265</v>
+      </c>
+      <c r="H19" s="10">
+        <v>1</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C19" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D19" s="10">
-        <v>1</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G19" s="8">
-        <v>45265</v>
-      </c>
-      <c r="H19" s="10">
-        <v>1</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="B20" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C20" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G20" s="8">
+        <v>45265</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="15"/>
+    </row>
+    <row r="21" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C20" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D20" s="10">
-        <v>1</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G20" s="8">
-        <v>45265</v>
-      </c>
-      <c r="H20" s="10">
-        <v>1</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="B21" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C21" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G21" s="8">
+        <v>45265</v>
+      </c>
+      <c r="H21" s="10">
+        <v>1</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C21" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D21" s="10">
-        <v>1</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G21" s="8">
-        <v>45265</v>
-      </c>
-      <c r="H21" s="10">
-        <v>1</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="B22" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C22" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G22" s="8">
+        <v>45265</v>
+      </c>
+      <c r="H22" s="10">
+        <v>1</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C22" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D22" s="10">
-        <v>1</v>
-      </c>
-      <c r="E22" s="11" t="s">
+      <c r="B23" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C23" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G22" s="8">
-        <v>45265</v>
-      </c>
-      <c r="H22" s="10">
-        <v>1</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
+      <c r="F23" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G23" s="8">
+        <v>45265</v>
+      </c>
+      <c r="H23" s="10">
+        <v>1</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="15"/>
+    </row>
+    <row r="24" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="26"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C24" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D24" s="10">
-        <v>1</v>
-      </c>
-      <c r="E24" s="11" t="s">
+      <c r="B25" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C25" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G24" s="9">
-        <v>45265</v>
-      </c>
-      <c r="H24" s="10">
-        <v>1</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J24" s="13"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="F25" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G25" s="9">
+        <v>45265</v>
+      </c>
+      <c r="H25" s="10">
+        <v>1</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C25" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D25" s="10">
-        <v>1</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G25" s="8">
-        <v>45265</v>
-      </c>
-      <c r="H25" s="10">
-        <v>1</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J25" s="16"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="B26" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C26" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G26" s="8">
+        <v>45265</v>
+      </c>
+      <c r="H26" s="10">
+        <v>1</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="15"/>
+    </row>
+    <row r="27" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C26" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D26" s="10">
-        <v>1</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G26" s="8">
-        <v>45265</v>
-      </c>
-      <c r="H26" s="10">
-        <v>1</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="B27" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C27" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D27" s="10">
+        <v>1</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G27" s="8">
+        <v>45265</v>
+      </c>
+      <c r="H27" s="10">
+        <v>1</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="15"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C27" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D27" s="10">
-        <v>1</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G27" s="8">
-        <v>45265</v>
-      </c>
-      <c r="H27" s="10">
-        <v>1</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27" s="16"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+      <c r="B28" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C28" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G28" s="8">
+        <v>45265</v>
+      </c>
+      <c r="H28" s="10">
+        <v>1</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="15"/>
+    </row>
+    <row r="29" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="B28" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C28" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D28" s="10">
-        <v>1</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G28" s="9">
-        <v>45265</v>
-      </c>
-      <c r="H28" s="10">
-        <v>1</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J28" s="13"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="B29" s="8">
         <v>45231</v>
@@ -2498,7 +2581,7 @@
       <c r="F29" s="8">
         <v>45244</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="9">
         <v>45265</v>
       </c>
       <c r="H29" s="10">
@@ -2507,25 +2590,41 @@
       <c r="I29" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="16"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="28" t="s">
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C30" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D30" s="10">
+        <v>1</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G30" s="8">
+        <v>45265</v>
+      </c>
+      <c r="H30" s="10">
+        <v>1</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" s="15"/>
+    </row>
+    <row r="31" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="28" t="s">
         <v>34</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
-        <v>35</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
@@ -2537,39 +2636,23 @@
       <c r="I31" s="25"/>
       <c r="J31" s="26"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="26"/>
+    </row>
+    <row r="33" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B32" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C32" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D32" s="10">
-        <v>1</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G32" s="9">
-        <v>45265</v>
-      </c>
-      <c r="H32" s="10">
-        <v>1</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J32" s="13"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="B33" s="8">
         <v>45231</v>
@@ -2597,9 +2680,9 @@
       </c>
       <c r="J33" s="13"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="8">
         <v>45231</v>
@@ -2627,9 +2710,9 @@
       </c>
       <c r="J34" s="13"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="8">
         <v>45231</v>
@@ -2657,9 +2740,9 @@
       </c>
       <c r="J35" s="13"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="8">
         <v>45231</v>
@@ -2687,9 +2770,9 @@
       </c>
       <c r="J36" s="13"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B37" s="8">
         <v>45231</v>
@@ -2706,7 +2789,7 @@
       <c r="F37" s="8">
         <v>45244</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="9">
         <v>45265</v>
       </c>
       <c r="H37" s="10">
@@ -2715,279 +2798,279 @@
       <c r="I37" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J37" s="16"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="24" t="s">
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C38" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G38" s="8">
+        <v>45265</v>
+      </c>
+      <c r="H38" s="10">
+        <v>1</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J38" s="15"/>
+    </row>
+    <row r="39" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="26"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C39" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D39" s="10">
-        <v>1</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G39" s="8">
-        <v>45265</v>
-      </c>
-      <c r="H39" s="10">
-        <v>1</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J39" s="16"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+      <c r="B40" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C40" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D40" s="10">
+        <v>1</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G40" s="8">
+        <v>45265</v>
+      </c>
+      <c r="H40" s="10">
+        <v>1</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" s="15"/>
+    </row>
+    <row r="41" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C40" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D40" s="10">
-        <v>1</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G40" s="8">
-        <v>45265</v>
-      </c>
-      <c r="H40" s="10">
-        <v>1</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J40" s="16"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+      <c r="B41" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C41" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D41" s="10">
+        <v>1</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G41" s="8">
+        <v>45265</v>
+      </c>
+      <c r="H41" s="10">
+        <v>1</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J41" s="15"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C41" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D41" s="10">
-        <v>1</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G41" s="8">
-        <v>45265</v>
-      </c>
-      <c r="H41" s="10">
-        <v>1</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J41" s="16"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
+      <c r="B42" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C42" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D42" s="10">
+        <v>1</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G42" s="8">
+        <v>45265</v>
+      </c>
+      <c r="H42" s="10">
+        <v>1</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J42" s="15"/>
+    </row>
+    <row r="43" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C42" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D42" s="10">
-        <v>1</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G42" s="8">
-        <v>45265</v>
-      </c>
-      <c r="H42" s="10">
-        <v>1</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J42" s="16"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+      <c r="B43" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C43" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D43" s="10">
+        <v>1</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G43" s="8">
+        <v>45265</v>
+      </c>
+      <c r="H43" s="10">
+        <v>1</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J43" s="15"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C43" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D43" s="10">
-        <v>1</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G43" s="8">
-        <v>45265</v>
-      </c>
-      <c r="H43" s="10">
-        <v>1</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J43" s="16"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
+      <c r="B44" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C44" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D44" s="10">
+        <v>1</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G44" s="8">
+        <v>45265</v>
+      </c>
+      <c r="H44" s="10">
+        <v>1</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J44" s="15"/>
+    </row>
+    <row r="45" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C44" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D44" s="10">
-        <v>1</v>
-      </c>
-      <c r="E44" s="11" t="s">
+      <c r="B45" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C45" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D45" s="10">
+        <v>1</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G44" s="8">
-        <v>45265</v>
-      </c>
-      <c r="H44" s="10">
-        <v>1</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J44" s="16"/>
-    </row>
-    <row r="45" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="27" t="s">
+      <c r="F45" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G45" s="8">
+        <v>45265</v>
+      </c>
+      <c r="H45" s="10">
+        <v>1</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J45" s="15"/>
+    </row>
+    <row r="46" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="26"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="26"/>
+    </row>
+    <row r="47" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C46" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D46" s="10">
-        <v>1</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G46" s="8">
-        <v>45265</v>
-      </c>
-      <c r="H46" s="10">
-        <v>1</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J46" s="21"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+      <c r="B47" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C47" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D47" s="10">
+        <v>1</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G47" s="8">
+        <v>45265</v>
+      </c>
+      <c r="H47" s="10">
+        <v>1</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="B47" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C47" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D47" s="10">
-        <v>1</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G47" s="9">
-        <v>45265</v>
-      </c>
-      <c r="H47" s="10">
-        <v>1</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J47" s="13"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="B48" s="8">
         <v>45231</v>
@@ -3015,54 +3098,94 @@
       </c>
       <c r="J48" s="13"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C49" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D49" s="10">
+        <v>1</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G49" s="9">
+        <v>45265</v>
+      </c>
+      <c r="H49" s="10">
+        <v>1</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J49" s="13"/>
+    </row>
+    <row r="50" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C49" s="8">
-        <v>45265</v>
-      </c>
-      <c r="D49" s="10">
-        <v>1</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="8">
-        <v>45244</v>
-      </c>
-      <c r="G49" s="8">
-        <v>45265</v>
-      </c>
-      <c r="H49" s="10">
-        <v>1</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J49" s="13"/>
+      <c r="B50" s="8">
+        <v>45231</v>
+      </c>
+      <c r="C50" s="8">
+        <v>45265</v>
+      </c>
+      <c r="D50" s="10">
+        <v>1</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="8">
+        <v>45244</v>
+      </c>
+      <c r="G50" s="8">
+        <v>45265</v>
+      </c>
+      <c r="H50" s="10">
+        <v>1</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A39:J39"/>
     <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A32:J32"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A23:J23"/>
     <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A17:J17"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D14 H3:H14 D17:D22 H17:H22 D24:D29 H24:H29 D32:D37 H32:H37 D39:D44 H39:H44 D46:D49 H46:H49">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D3:D6 H3:H6 D18:D23 H18:H23 D25:D30 H25:H30 D33:D38 H33:H38 D40:D45 H40:H45 D47:D50 H47:H50 H8:H15 D8:D15">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H14 H17:H22 H24:H29 H32:H37 H39:H44 H46:H49">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="H3:H6 H18:H23 H25:H30 H33:H38 H40:H45 H47:H50 H8:H15">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+      <formula>0.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7 H7">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+      <formula>0.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
